--- a/data/prunning_threshold_sparse.xlsx
+++ b/data/prunning_threshold_sparse.xlsx
@@ -488,28 +488,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>441</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>813</v>
       </c>
       <c r="F2" t="n">
-        <v>42.85714285714285</v>
+        <v>61.43057503506311</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H2" t="n">
-        <v>2.01407790184021</v>
+        <v>2.255427321365902</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0006120204925537109</v>
+        <v>0.0007588233266557966</v>
       </c>
       <c r="J2" t="n">
-        <v>69510</v>
+        <v>77308.5</v>
       </c>
     </row>
     <row r="3">
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08067679405212402</v>
+        <v>0.05826804552759443</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0003745555877685547</v>
+        <v>0.000449641261781965</v>
       </c>
       <c r="J3" t="n">
-        <v>20</v>
+        <v>40.43571428571428</v>
       </c>
     </row>
     <row r="4">
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03441452980041504</v>
+        <v>0.06096749476024083</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000354766845703125</v>
+        <v>0.0004732574735369001</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>34.45</v>
       </c>
     </row>
     <row r="5">
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -596,16 +596,16 @@
         <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03542423248291016</v>
+        <v>0.05807751161711557</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003695487976074219</v>
+        <v>0.000474440199988229</v>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="6">
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -628,16 +628,16 @@
         <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03483843803405762</v>
+        <v>0.06014094693320138</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0003662109375</v>
+        <v>0.0004789624895368304</v>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>27.74285714285714</v>
       </c>
     </row>
     <row r="7">
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -660,16 +660,16 @@
         <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03765273094177246</v>
+        <v>0.06016631381852286</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0004749298095703125</v>
+        <v>0.0004607268742152623</v>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>25.85714285714286</v>
       </c>
     </row>
     <row r="8">
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -692,16 +692,16 @@
         <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08067655563354492</v>
+        <v>0.0579003666128431</v>
       </c>
       <c r="I8" t="n">
-        <v>0.000423431396484375</v>
+        <v>0.0004580966063908168</v>
       </c>
       <c r="J8" t="n">
-        <v>20</v>
+        <v>23.81428571428571</v>
       </c>
     </row>
     <row r="9">
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -724,16 +724,16 @@
         <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08158683776855469</v>
+        <v>0.05801261407988412</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0004017353057861328</v>
+        <v>0.0006170690059661866</v>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="10">
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -756,16 +756,16 @@
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08391642570495605</v>
+        <v>0.05815282549176897</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0004384517669677734</v>
+        <v>0.0004557618073054723</v>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>20.17142857142857</v>
       </c>
     </row>
     <row r="11">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03496193885803223</v>
+        <v>0.05649310691016061</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003941059112548828</v>
+        <v>0.0004402092524937221</v>
       </c>
       <c r="J11" t="n">
         <v>20</v>
